--- a/public/excel/RFK_SKPD3.xlsx
+++ b/public/excel/RFK_SKPD3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60237AA7-E237-DC47-A971-A3E913A8F76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FAE827-D561-804A-A61B-992E6A61E1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="1560" windowWidth="27640" windowHeight="16940" xr2:uid="{7CB51C10-34C8-254E-85A7-74B33191DCCF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>NO</t>
   </si>
@@ -107,16 +107,13 @@
     <t>Kepala SKPD</t>
   </si>
   <si>
-    <t>NURYADI, S.Pd., MA</t>
-  </si>
-  <si>
-    <t>PEMBINA TINGKAT I (IV/b)</t>
-  </si>
-  <si>
-    <t>NIP. 19670413 198804 1 004</t>
-  </si>
-  <si>
     <t>NIP.  .............................................</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>PANGKAT</t>
   </si>
 </sst>
 </file>
@@ -692,18 +689,6 @@
     <xf numFmtId="39" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,6 +757,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,7 +1107,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,10 +1167,10 @@
       <c r="L2" s="15"/>
       <c r="M2" s="18"/>
       <c r="N2" s="19"/>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="62"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1237,76 +1234,76 @@
       <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="69" t="s">
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="76" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="80" t="s">
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="83" t="s">
+      <c r="L7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="73"/>
-      <c r="O7" s="72" t="s">
+      <c r="N7" s="69"/>
+      <c r="O7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="74" t="s">
+      <c r="P7" s="69"/>
+      <c r="Q7" s="70" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="79"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1325,7 @@
       <c r="K8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="79"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1338,7 @@
       <c r="P8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="75"/>
+      <c r="Q8" s="71"/>
     </row>
     <row r="9" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1416,10 +1413,10 @@
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="26">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1545,10 +1542,10 @@
       <c r="J15" s="36"/>
       <c r="K15" s="38"/>
       <c r="L15" s="36"/>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="59"/>
+      <c r="N15" s="82"/>
       <c r="O15" s="40"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="37"/>
@@ -1619,10 +1616,10 @@
       <c r="J19" s="36"/>
       <c r="K19" s="38"/>
       <c r="L19" s="36"/>
-      <c r="M19" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="60"/>
+      <c r="M19" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="83"/>
       <c r="O19" s="40"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="37"/>
@@ -1639,10 +1636,10 @@
       <c r="J20" s="36"/>
       <c r="K20" s="38"/>
       <c r="L20" s="36"/>
-      <c r="M20" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="59"/>
+      <c r="M20" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="82"/>
       <c r="O20" s="40"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="37"/>
@@ -1659,10 +1656,10 @@
       <c r="J21" s="36"/>
       <c r="K21" s="38"/>
       <c r="L21" s="36"/>
-      <c r="M21" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="59"/>
+      <c r="M21" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="82"/>
       <c r="O21" s="40"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="37"/>
@@ -1679,9 +1676,7 @@
       <c r="J22" s="36"/>
       <c r="K22" s="38"/>
       <c r="L22" s="36"/>
-      <c r="M22" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="M22" s="35"/>
       <c r="N22" s="14"/>
       <c r="O22" s="40"/>
       <c r="P22" s="16"/>
@@ -1875,6 +1870,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
@@ -1889,11 +1889,6 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/RFK_SKPD3.xlsx
+++ b/public/excel/RFK_SKPD3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FAE827-D561-804A-A61B-992E6A61E1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0802FB-4EA0-874D-B28B-7FB2D2CE479D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="1560" windowWidth="27640" windowHeight="16940" xr2:uid="{7CB51C10-34C8-254E-85A7-74B33191DCCF}"/>
   </bookViews>
@@ -689,6 +689,18 @@
     <xf numFmtId="39" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,18 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,10 +1167,10 @@
       <c r="L2" s="15"/>
       <c r="M2" s="18"/>
       <c r="N2" s="19"/>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="58"/>
+      <c r="P2" s="62"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1234,76 +1234,76 @@
       <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65" t="s">
+      <c r="D6" s="68"/>
+      <c r="E6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="65" t="s">
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="72" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="76" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="79" t="s">
+      <c r="L7" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="69"/>
-      <c r="O7" s="68" t="s">
+      <c r="N7" s="73"/>
+      <c r="O7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="70" t="s">
+      <c r="P7" s="73"/>
+      <c r="Q7" s="74" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="75"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="K8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="75"/>
+      <c r="L8" s="79"/>
       <c r="M8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1338,7 +1338,7 @@
       <c r="P8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="71"/>
+      <c r="Q8" s="75"/>
     </row>
     <row r="9" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1410,13 +1410,13 @@
       <c r="N10" s="55"/>
       <c r="O10" s="55"/>
       <c r="P10" s="55"/>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="55"/>
     </row>
     <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="81"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="26">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1542,10 +1542,10 @@
       <c r="J15" s="36"/>
       <c r="K15" s="38"/>
       <c r="L15" s="36"/>
-      <c r="M15" s="82" t="s">
+      <c r="M15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="82"/>
+      <c r="N15" s="59"/>
       <c r="O15" s="40"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="37"/>
@@ -1616,10 +1616,10 @@
       <c r="J19" s="36"/>
       <c r="K19" s="38"/>
       <c r="L19" s="36"/>
-      <c r="M19" s="83" t="s">
+      <c r="M19" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="83"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="40"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="37"/>
@@ -1636,10 +1636,10 @@
       <c r="J20" s="36"/>
       <c r="K20" s="38"/>
       <c r="L20" s="36"/>
-      <c r="M20" s="82" t="s">
+      <c r="M20" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="82"/>
+      <c r="N20" s="59"/>
       <c r="O20" s="40"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="37"/>
@@ -1656,10 +1656,10 @@
       <c r="J21" s="36"/>
       <c r="K21" s="38"/>
       <c r="L21" s="36"/>
-      <c r="M21" s="82" t="s">
+      <c r="M21" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="82"/>
+      <c r="N21" s="59"/>
       <c r="O21" s="40"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="37"/>
@@ -1870,11 +1870,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
@@ -1889,6 +1884,11 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
